--- a/gu-schedule.xlsx
+++ b/gu-schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D838EC-673B-45EE-B6D4-6CC881C405FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="51840" windowHeight="21390" tabRatio="215" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="51840" windowHeight="21390" tabRatio="215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informacje" sheetId="12" r:id="rId1"/>
@@ -16,12 +17,12 @@
     <definedName name="Dzisiaj" localSheetId="1">TODAY()</definedName>
     <definedName name="Początek_projektu" localSheetId="2">Ciemne!$C$6</definedName>
     <definedName name="Początek_projektu" localSheetId="1">Jasne!$C$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Ciemne!$6:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Jasne!$6:$9</definedName>
     <definedName name="Przyrost_przewijania" localSheetId="2">Ciemne!$C$7</definedName>
     <definedName name="Przyrost_przewijania" localSheetId="1">Jasne!$C$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Ciemne!$6:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Jasne!$6:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,14 +41,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -203,12 +204,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="42" x14ac:knownFonts="1">
     <font>
@@ -837,7 +838,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -849,12 +850,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -894,16 +895,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +920,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,13 +963,13 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1028,7 +1029,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,10 +1038,10 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1103,7 +1104,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1125,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1164,10 +1165,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,10 +1193,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,10 +1214,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,29 +1273,680 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Akcent 3" xfId="11" builtinId="37"/>
-    <cellStyle name="Comma 2" xfId="12"/>
-    <cellStyle name="Comma 2 2" xfId="13"/>
-    <cellStyle name="Data" xfId="9"/>
-    <cellStyle name="Dziesiętny" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Dziesiętny [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zUkryty_tekst" xfId="3"/>
+    <cellStyle name="Accent3" xfId="11" builtinId="37"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Comma 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Data" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="zUkryty_tekst" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="357">
+  <dxfs count="369">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1521,6 +2173,16 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7034,443 +7696,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7640,22 +7865,22 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Styl tabeli Gantta" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="356"/>
-      <tableStyleElement type="headerRow" dxfId="355"/>
-      <tableStyleElement type="firstRowStripe" dxfId="354"/>
-      <tableStyleElement type="secondRowStripe" dxfId="353"/>
+    <tableStyle name="Styl tabeli Gantta" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="368"/>
+      <tableStyleElement type="headerRow" dxfId="367"/>
+      <tableStyleElement type="firstRowStripe" dxfId="366"/>
+      <tableStyleElement type="secondRowStripe" dxfId="365"/>
     </tableStyle>
-    <tableStyle name="ListaZadańDoWykonania" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="352"/>
-      <tableStyleElement type="headerRow" dxfId="351"/>
-      <tableStyleElement type="totalRow" dxfId="350"/>
-      <tableStyleElement type="firstColumn" dxfId="349"/>
-      <tableStyleElement type="lastColumn" dxfId="348"/>
-      <tableStyleElement type="firstRowStripe" dxfId="347"/>
-      <tableStyleElement type="secondRowStripe" dxfId="346"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="345"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="344"/>
+    <tableStyle name="ListaZadańDoWykonania" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="364"/>
+      <tableStyleElement type="headerRow" dxfId="363"/>
+      <tableStyleElement type="totalRow" dxfId="362"/>
+      <tableStyleElement type="firstColumn" dxfId="361"/>
+      <tableStyleElement type="lastColumn" dxfId="360"/>
+      <tableStyleElement type="firstRowStripe" dxfId="359"/>
+      <tableStyleElement type="secondRowStripe" dxfId="358"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="357"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="356"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7772,7 +7997,7 @@
         <xdr:cNvPr id="2" name="Grafika 1" descr="Wykres Gantta z wypełnieniem ciągłym">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7787,7 +8012,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7830,7 +8055,7 @@
         <xdr:cNvPr id="2" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBF29B69-6CC7-4335-B839-AAB9000B3191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7906,7 +8131,7 @@
                   <a14:compatExt spid="_x0000_s13313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001340000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001340000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7937,8 +8162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Punkty kontrolne4352" displayName="Punkty_kontrolne4352" ref="B9:G17" totalsRowShown="0" headerRowDxfId="343" dataDxfId="342">
-  <autoFilter ref="B9:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Punkty kontrolne4352" displayName="Punkty_kontrolne4352" ref="B9:G17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="B9:G17" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -7947,12 +8172,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Opis punktu kontrolnego" dataDxfId="341"/>
-    <tableColumn id="2" name="Kategoria" dataDxfId="340"/>
-    <tableColumn id="3" name="Przypisane do" dataDxfId="339"/>
-    <tableColumn id="4" name="Postęp" dataDxfId="338"/>
-    <tableColumn id="5" name="Rozpoczęcie" dataDxfId="337"/>
-    <tableColumn id="6" name="Dni" dataDxfId="336"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Opis punktu kontrolnego" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategoria" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Przypisane do" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Postęp" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Rozpoczęcie" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Dni" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="ListaZadańDoWykonania" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -7964,8 +8189,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Punkty kontrolne435" displayName="Punkty_kontrolne435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="321">
-  <autoFilter ref="B9:G36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Punkty kontrolne435" displayName="Punkty_kontrolne435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="B9:G36" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -7974,12 +8199,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Opis punktu kontrolnego" dataDxfId="320"/>
-    <tableColumn id="2" name="Kategoria" dataDxfId="319"/>
-    <tableColumn id="3" name="Przypisane do" dataDxfId="318"/>
-    <tableColumn id="4" name="Postęp"/>
-    <tableColumn id="5" name="Rozpoczęcie"/>
-    <tableColumn id="6" name="Dni"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Opis punktu kontrolnego" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Kategoria" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Przypisane do" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Postęp"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Rozpoczęcie"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Dni"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli Gantta" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -8252,7 +8477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -8424,17 +8649,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:UX19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="AK10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
+      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10200,7 +10425,7 @@
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="90" t="str">
-        <f ca="1">TEXT(I7,"rrrr")</f>
+        <f ca="1">TEXT(I7,"yyyy")</f>
         <v>2021</v>
       </c>
       <c r="J5" s="90"/>
@@ -10210,7 +10435,7 @@
       <c r="N5" s="90"/>
       <c r="O5" s="90"/>
       <c r="P5" s="90" t="str">
-        <f ca="1">IF(TEXT(P7,"rrrr")=I5,"",TEXT(P7,"rrrr"))</f>
+        <f ca="1">IF(TEXT(P7,"yyyy")=I5,"",TEXT(P7,"yyyy"))</f>
         <v/>
       </c>
       <c r="Q5" s="90"/>
@@ -10220,7 +10445,7 @@
       <c r="U5" s="90"/>
       <c r="V5" s="90"/>
       <c r="W5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(W7,"rrrr")=P5,TEXT(W7,"rrrr")=I5),"",TEXT(W7,"rrrr"))</f>
+        <f ca="1">IF(OR(TEXT(W7,"yyyy")=P5,TEXT(W7,"yyyy")=I5),"",TEXT(W7,"yyyy"))</f>
         <v/>
       </c>
       <c r="X5" s="90"/>
@@ -10230,7 +10455,7 @@
       <c r="AB5" s="90"/>
       <c r="AC5" s="90"/>
       <c r="AD5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(AD7,"rrrr")=W5,TEXT(AD7,"rrrr")=P5,TEXT(AD7,"rrrr")=I5),"",TEXT(AD7,"rrrr"))</f>
+        <f ca="1">IF(OR(TEXT(AD7,"yyyy")=W5,TEXT(AD7,"yyyy")=P5,TEXT(AD7,"yyyy")=I5),"",TEXT(AD7,"yyyy"))</f>
         <v/>
       </c>
       <c r="AE5" s="90"/>
@@ -10240,58 +10465,58 @@
       <c r="AI5" s="90"/>
       <c r="AJ5" s="90"/>
       <c r="AK5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(AK7,"rrrr")=AD5,TEXT(AK7,"rrrr")=W5,TEXT(AK7,"rrrr")=P5,TEXT(AK7,"rrrr")=I5),"",TEXT(AK7,"rrrr"))</f>
+        <f ca="1">IF(OR(TEXT(AK7,"yyyy")=AD5,TEXT(AK7,"yyyy")=W5,TEXT(AK7,"yyyy")=P5,TEXT(AK7,"yyyy")=I5),"",TEXT(AK7,"yyyy"))</f>
         <v/>
       </c>
       <c r="AL5" s="90"/>
       <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(AR7,"rrrr")=AK6,TEXT(AR7,"rrrr")=AD6,TEXT(AR7,"rrrr")=W6,TEXT(AR7,"rrrr")=P6),"",TEXT(AR7,"rrrr"))</f>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5" t="str">
+        <f ca="1">IF(OR(TEXT(AR7,"yyyy")=AK5,TEXT(AR7,"yyyy")=AD5,TEXT(AR7,"yyyy")=W5,TEXT(AR7,"yyyy")=P5),"",TEXT(AR7,"yyyy"))</f>
         <v>2021</v>
       </c>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(AY7,"rrrr")=AR5,TEXT(AY7,"rrrr")=AK5,TEXT(AY7,"rrrr")=AD5,TEXT(AY7,"rrrr")=W5),"",TEXT(AY7,"rrrr"))</f>
-        <v/>
-      </c>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90" t="str">
-        <f ca="1">IF(OR(TEXT(BF7,"rrrr")=AY5,TEXT(BF7,"rrrr")=AR5,TEXT(BF7,"rrrr")=AK5,TEXT(BF7,"rrrr")=AD5),"",TEXT(BF7,"rrrr"))</f>
-        <v/>
-      </c>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="90"/>
-      <c r="BK5" s="90"/>
-      <c r="BL5" s="90"/>
-      <c r="BM5" s="91" t="str">
-        <f ca="1">IF(OR(TEXT(BM7,"rrrr")=BF5,TEXT(BM7,"rrrr")=AY5,TEXT(BM7,"rrrr")=AR5,TEXT(BM7,"rrrr")=AK5),"",TEXT(BM7,"rrrr"))</f>
-        <v/>
-      </c>
-      <c r="BN5" s="90"/>
-      <c r="BO5" s="90"/>
-      <c r="BP5" s="90"/>
-      <c r="BQ5" s="90"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5" t="str">
+        <f ca="1">IF(OR(TEXT(AY7,"yyyy")=AR5,TEXT(AY7,"yyyy")=AK5,TEXT(AY7,"yyyy")=AD5,TEXT(AY7,"yyyy")=W5),"",TEXT(AY7,"yyyy"))</f>
+        <v/>
+      </c>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5" t="str">
+        <f ca="1">IF(OR(TEXT(BF7,"yyyy")=AY5,TEXT(BF7,"yyyy")=AR5,TEXT(BF7,"yyyy")=AK5,TEXT(BF7,"yyyy")=AD5),"",TEXT(BF7,"yyyy"))</f>
+        <v/>
+      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5" t="str">
+        <f ca="1">IF(OR(TEXT(BM7,"yyyy")=BF5,TEXT(BM7,"yyyy")=AY5,TEXT(BM7,"yyyy")=AR5,TEXT(BM7,"yyyy")=AK5),"",TEXT(BM7,"yyyy"))</f>
+        <v/>
+      </c>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
       <c r="BR5" s="90"/>
       <c r="BS5" s="90"/>
       <c r="BT5" s="90" t="str">
         <f ca="1">IF(OR(TEXT(BT7,"rrrr")=BM6,TEXT(BT7,"rrrr")=BF6,TEXT(BT7,"rrrr")=AY6,TEXT(BT7,"rrrr")=AR6),"",TEXT(BT7,"rrrr"))</f>
-        <v>2021</v>
+        <v>rrrr</v>
       </c>
       <c r="BU5" s="90"/>
       <c r="BV5" s="90"/>
@@ -10335,7 +10560,7 @@
       <c r="DB5" s="90"/>
       <c r="DC5" s="90" t="str">
         <f ca="1">IF(OR(TEXT(DC7,"rrrr")=CV5,TEXT(DC7,"rrrr")=CO5,TEXT(DC7,"rrrr")=CH5,TEXT(DC7,"rrrr")=CA5),"",TEXT(DC7,"rrrr"))</f>
-        <v>2021</v>
+        <v>rrrr</v>
       </c>
       <c r="DD5" s="90"/>
       <c r="DE5" s="90"/>
@@ -10814,7 +11039,7 @@
       </c>
       <c r="D6" s="140" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IFERROR(IF(MIN(Punkty_kontrolne4352[Rozpoczęcie])=0,TODAY(),#REF!(Punkty_kontrolne4352[Rozpoczęcie])),TODAY())</f>
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="87"/>
@@ -10822,7 +11047,7 @@
       <c r="H6" s="81"/>
       <c r="I6" s="98" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>sierpień</v>
+        <v>August</v>
       </c>
       <c r="J6" s="135"/>
       <c r="K6" s="98"/>
@@ -10878,7 +11103,7 @@
       <c r="AQ6" s="98"/>
       <c r="AR6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>wrzesień</v>
+        <v>September</v>
       </c>
       <c r="AS6" s="135"/>
       <c r="AT6" s="135"/>
@@ -10918,7 +11143,7 @@
       <c r="BS6" s="135"/>
       <c r="BT6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(BT7,"mmmm")=BM6,TEXT(BT7,"mmmm")=BF6,TEXT(BT7,"mmmm")=AY6,TEXT(BT7,"mmmm")=AR6),"",TEXT(BT7,"mmmm"))</f>
-        <v>październik</v>
+        <v>October</v>
       </c>
       <c r="BU6" s="135"/>
       <c r="BV6" s="135"/>
@@ -10968,7 +11193,7 @@
       <c r="DB6" s="135"/>
       <c r="DC6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(DC7,"mmmm")=CV6,TEXT(DC7,"mmmm")=CO6,TEXT(DC7,"mmmm")=CH6,TEXT(DC7,"mmmm")=CA6),"",TEXT(DC7,"mmmm"))</f>
-        <v>listopad</v>
+        <v>November</v>
       </c>
       <c r="DD6" s="135"/>
       <c r="DE6" s="135"/>
@@ -11008,7 +11233,7 @@
       <c r="ED6" s="98"/>
       <c r="EE6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(EE7,"mmmm")=DX6,TEXT(EE7,"mmmm")=DQ6,TEXT(EE7,"mmmm")=DJ6,TEXT(EE7,"mmmm")=DC6),"",TEXT(EE7,"mmmm"))</f>
-        <v>grudzień</v>
+        <v>December</v>
       </c>
       <c r="EF6" s="98"/>
       <c r="EG6" s="98"/>
@@ -11048,7 +11273,7 @@
       <c r="FF6" s="98"/>
       <c r="FG6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(FG7,"mmmm")=EZ6,TEXT(FG7,"mmmm")=ES6,TEXT(FG7,"mmmm")=EL6,TEXT(FG7,"mmmm")=EE6),"",TEXT(FG7,"mmmm"))</f>
-        <v>styczeń</v>
+        <v>January</v>
       </c>
       <c r="FH6" s="98"/>
       <c r="FI6" s="98"/>
@@ -11098,7 +11323,7 @@
       <c r="GO6" s="98"/>
       <c r="GP6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(GP7,"mmmm")=GI6,TEXT(GP7,"mmmm")=GB6,TEXT(GP7,"mmmm")=FU6,TEXT(GP7,"mmmm")=FN6),"",TEXT(GP7,"mmmm"))</f>
-        <v>luty</v>
+        <v>February</v>
       </c>
       <c r="GQ6" s="135"/>
       <c r="GR6" s="135"/>
@@ -11138,7 +11363,7 @@
       <c r="HQ6" s="135"/>
       <c r="HR6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(HR7,"mmmm")=HK6,TEXT(HR7,"mmmm")=HD6,TEXT(HR7,"mmmm")=GW6,TEXT(HR7,"mmmm")=GP6),"",TEXT(HR7,"mmmm"))</f>
-        <v>marzec</v>
+        <v>March</v>
       </c>
       <c r="HS6" s="135"/>
       <c r="HT6" s="135"/>
@@ -11178,7 +11403,7 @@
       <c r="IS6" s="135"/>
       <c r="IT6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(IT7,"mmmm")=IM6,TEXT(IT7,"mmmm")=IF6,TEXT(IT7,"mmmm")=HY6,TEXT(IT7,"mmmm")=HR6),"",TEXT(IT7,"mmmm"))</f>
-        <v>kwiecień</v>
+        <v>April</v>
       </c>
       <c r="IU6" s="135"/>
       <c r="IV6" s="135"/>
@@ -11218,7 +11443,7 @@
       <c r="JU6" s="135"/>
       <c r="JV6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(JV7,"mmmm")=JO6,TEXT(JV7,"mmmm")=JH6,TEXT(JV7,"mmmm")=JA6,TEXT(JV7,"mmmm")=IT6),"",TEXT(JV7,"mmmm"))</f>
-        <v>maj</v>
+        <v>May</v>
       </c>
       <c r="JW6" s="135"/>
       <c r="JX6" s="135"/>
@@ -11268,7 +11493,7 @@
       <c r="LD6" s="135"/>
       <c r="LE6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(LE7,"mmmm")=KX6,TEXT(LE7,"mmmm")=KQ6,TEXT(LE7,"mmmm")=KJ6,TEXT(LE7,"mmmm")=KC6),"",TEXT(LE7,"mmmm"))</f>
-        <v>czerwiec</v>
+        <v>June</v>
       </c>
       <c r="LF6" s="135"/>
       <c r="LG6" s="135"/>
@@ -11308,7 +11533,7 @@
       <c r="MF6" s="135"/>
       <c r="MG6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(MG7,"mmmm")=LZ6,TEXT(MG7,"mmmm")=LS6,TEXT(MG7,"mmmm")=LL6,TEXT(MG7,"mmmm")=LE6),"",TEXT(MG7,"mmmm"))</f>
-        <v>lipiec</v>
+        <v>July</v>
       </c>
       <c r="MH6" s="135"/>
       <c r="MI6" s="135"/>
@@ -11358,7 +11583,7 @@
       <c r="NO6" s="135"/>
       <c r="NP6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(NP7,"mmmm")=NI6,TEXT(NP7,"mmmm")=NB6,TEXT(NP7,"mmmm")=MU6,TEXT(NP7,"mmmm")=MN6),"",TEXT(NP7,"mmmm"))</f>
-        <v>sierpień</v>
+        <v>August</v>
       </c>
       <c r="NQ6" s="135"/>
       <c r="NR6" s="135"/>
@@ -11398,7 +11623,7 @@
       <c r="OQ6" s="135"/>
       <c r="OR6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(OR7,"mmmm")=OK6,TEXT(OR7,"mmmm")=OD6,TEXT(OR7,"mmmm")=NW6,TEXT(OR7,"mmmm")=NP6),"",TEXT(OR7,"mmmm"))</f>
-        <v>wrzesień</v>
+        <v>September</v>
       </c>
       <c r="OS6" s="135"/>
       <c r="OT6" s="135"/>
@@ -11438,7 +11663,7 @@
       <c r="PS6" s="135"/>
       <c r="PT6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(PT7,"mmmm")=PM6,TEXT(PT7,"mmmm")=PF6,TEXT(PT7,"mmmm")=OY6,TEXT(PT7,"mmmm")=OR6),"",TEXT(PT7,"mmmm"))</f>
-        <v>październik</v>
+        <v>October</v>
       </c>
       <c r="PU6" s="135"/>
       <c r="PV6" s="135"/>
@@ -11488,7 +11713,7 @@
       <c r="RB6" s="135"/>
       <c r="RC6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(RC7,"mmmm")=QV6,TEXT(RC7,"mmmm")=QO6,TEXT(RC7,"mmmm")=QH6,TEXT(RC7,"mmmm")=QA6),"",TEXT(RC7,"mmmm"))</f>
-        <v>listopad</v>
+        <v>November</v>
       </c>
       <c r="RD6" s="135"/>
       <c r="RE6" s="135"/>
@@ -11528,7 +11753,7 @@
       <c r="SD6" s="135"/>
       <c r="SE6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(SE7,"mmmm")=RX6,TEXT(SE7,"mmmm")=RQ6,TEXT(SE7,"mmmm")=RJ6,TEXT(SE7,"mmmm")=RC6),"",TEXT(SE7,"mmmm"))</f>
-        <v>grudzień</v>
+        <v>December</v>
       </c>
       <c r="SF6" s="135"/>
       <c r="SG6" s="135"/>
@@ -11568,7 +11793,7 @@
       <c r="TF6" s="135"/>
       <c r="TG6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(TG7,"mmmm")=SZ6,TEXT(TG7,"mmmm")=SS6,TEXT(TG7,"mmmm")=SL6,TEXT(TG7,"mmmm")=SE6),"",TEXT(TG7,"mmmm"))</f>
-        <v>styczeń</v>
+        <v>January</v>
       </c>
       <c r="TH6" s="135"/>
       <c r="TI6" s="135"/>
@@ -11618,7 +11843,7 @@
       <c r="UO6" s="135"/>
       <c r="UP6" s="135" t="str">
         <f ca="1">IF(OR(TEXT(UP7,"mmmm")=UI6,TEXT(UP7,"mmmm")=UB6,TEXT(UP7,"mmmm")=TU6,TEXT(UP7,"mmmm")=TN6),"",TEXT(UP7,"mmmm"))</f>
-        <v>luty</v>
+        <v>February</v>
       </c>
       <c r="UQ6" s="135"/>
       <c r="UR6" s="135"/>
@@ -14487,2251 +14712,2251 @@
       <c r="H9" s="133"/>
       <c r="I9" s="119" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="509">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="J9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="K9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="L9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="M9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="N9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="O9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="P9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="R9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="S9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="T9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="U9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="V9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="W9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="X9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="AA9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="AC9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="AH9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="AO9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="AQ9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="AV9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="AX9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="BC9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="BE9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="BJ9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="BL9" s="119" t="str">
         <f t="shared" ca="1" si="509"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="119" t="str">
         <f t="shared" ref="BM9:BU9" ca="1" si="510">LEFT(TEXT(BM7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="BN9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="BO9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BP9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="BQ9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="BR9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="BS9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BT9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="BU9" s="119" t="str">
         <f t="shared" ca="1" si="510"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="BV9" s="119" t="str">
         <f t="shared" ref="BV9:EG9" ca="1" si="511">LEFT(TEXT(BV7,"ddd"),1)</f>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BW9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="BX9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="BY9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="BZ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CA9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="CB9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="CC9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="CD9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="CE9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="CF9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="CG9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CH9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="CI9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="CJ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="CK9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="CL9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="CM9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="CN9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CO9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="CP9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="CQ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="CR9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="CS9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="CT9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="CU9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CV9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="CW9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="CX9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="CY9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="CZ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="DA9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="DB9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DC9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="DD9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="DE9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="DF9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="DG9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="DH9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="DI9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DJ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="DK9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="DL9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="DM9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="DN9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="DO9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="DP9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DQ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="DR9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="DS9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="DT9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="DU9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="DV9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="DW9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DX9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="DY9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="DZ9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="EA9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="EB9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="EC9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="ED9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="EE9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="EF9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="EG9" s="119" t="str">
         <f t="shared" ca="1" si="511"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="EH9" s="119" t="str">
         <f t="shared" ref="EH9:GA9" ca="1" si="512">LEFT(TEXT(EH7,"ddd"),1)</f>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="EI9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="EJ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="EK9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="EL9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="EM9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="EN9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="EO9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="EP9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="EQ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="ER9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="ES9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="ET9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="EU9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="EV9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="EW9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="EX9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="EY9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="EZ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="FA9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="FB9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="FC9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="FD9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="FE9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="FF9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FG9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="FH9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="FI9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="FJ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="FK9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="FL9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="FM9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FN9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="FO9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="FP9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="FQ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="FR9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="FS9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="FT9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FU9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="FV9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="FW9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="FX9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="FY9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="FZ9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="GA9" s="119" t="str">
         <f t="shared" ca="1" si="512"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GB9" s="119" t="str">
         <f t="shared" ref="GB9:IM9" ca="1" si="513">LEFT(TEXT(GB7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="GC9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="GD9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="GE9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="GF9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="GG9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="GH9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GI9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="GJ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="GK9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="GL9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="GM9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="GN9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="GO9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GP9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="GQ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="GR9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="GS9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="GT9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="GU9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="GV9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GW9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="GX9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="GY9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="GZ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="HA9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="HB9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="HC9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HD9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="HE9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="HF9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="HG9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="HH9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="HI9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="HJ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HK9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="HL9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="HM9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="HN9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="HO9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="HP9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="HQ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HR9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="HS9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="HT9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="HU9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="HV9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="HW9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="HX9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HY9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="HZ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="IA9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="IB9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="IC9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="ID9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="IE9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IF9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="IG9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="IH9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="II9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="IJ9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="IK9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="IL9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IM9" s="119" t="str">
         <f t="shared" ca="1" si="513"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="IN9" s="119" t="str">
         <f t="shared" ref="IN9:KI9" ca="1" si="514">LEFT(TEXT(IN7,"ddd"),1)</f>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="IO9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="IP9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="IQ9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="IR9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="IS9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IT9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="IU9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="IV9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="IW9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="IX9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="IY9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="IZ9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JA9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="JB9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="JC9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="JD9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="JE9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="JF9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="JG9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JH9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="JI9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="JJ9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="JK9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="JL9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="JM9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="JN9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JO9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="JP9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="JQ9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="JR9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="JS9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="JT9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="JU9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JV9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="JW9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="JX9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="JY9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="JZ9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="KA9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="KB9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="KC9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="KD9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="KE9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="KF9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="KG9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="KH9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="KI9" s="119" t="str">
         <f t="shared" ca="1" si="514"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="KJ9" s="119" t="str">
         <f t="shared" ref="KJ9:LL9" ca="1" si="515">LEFT(TEXT(KJ7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="KK9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="KL9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="KM9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="KN9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="KO9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="KP9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="KQ9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="KR9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="KS9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="KT9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="KU9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="KV9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="KW9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="KX9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="KY9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="KZ9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="LA9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="LB9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="LC9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="LD9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="LE9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="LF9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="LG9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="LH9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="LI9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="LJ9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="LK9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="LL9" s="119" t="str">
         <f t="shared" ca="1" si="515"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="LM9" s="119" t="str">
         <f t="shared" ref="LM9:NO9" ca="1" si="516">LEFT(TEXT(LM7,"ddd"),1)</f>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="LN9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="LO9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="LP9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="LQ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="LR9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="LS9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="LT9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="LU9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="LV9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="LW9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="LX9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="LY9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="LZ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="MA9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="MB9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="MC9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="MD9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="ME9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="MF9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="MG9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="MH9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="MI9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="MJ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="MK9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="ML9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="MM9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="MN9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="MO9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="MP9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="MQ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="MR9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="MS9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="MT9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="MU9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="MV9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="MW9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="MX9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="MY9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="MZ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="NA9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="NB9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="NC9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="ND9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="NE9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="NF9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="NG9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="NH9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="NI9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="NJ9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="NK9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="NL9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="NM9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="NN9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="NO9" s="119" t="str">
         <f t="shared" ca="1" si="516"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="NP9" s="119" t="str">
         <f t="shared" ref="NP9:PT9" ca="1" si="517">LEFT(TEXT(NP7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="NQ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="NR9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="NS9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="NT9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="NU9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="NV9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="NW9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="NX9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="NY9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="NZ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="OA9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="OB9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="OC9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="OD9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="OE9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="OF9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="OG9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="OH9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="OI9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="OJ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="OK9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="OL9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="OM9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="ON9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="OO9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="OP9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="OQ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="OR9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="OS9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="OT9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="OU9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="OV9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="OW9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="OX9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="OY9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="OZ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="PA9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="PB9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="PC9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="PD9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="PE9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="PF9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="PG9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="PH9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="PI9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="PJ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="PK9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="PL9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="PM9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="PN9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="PO9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="PP9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="PQ9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="PR9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="PS9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="PT9" s="119" t="str">
         <f t="shared" ca="1" si="517"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="PU9" s="119" t="str">
         <f t="shared" ref="PU9:SF9" ca="1" si="518">LEFT(TEXT(PU7,"ddd"),1)</f>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="PV9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="PW9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="PX9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="PY9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="PZ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="QA9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="QB9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="QC9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="QD9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="QE9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="QF9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="QG9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="QH9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="QI9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="QJ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="QK9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="QL9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="QM9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="QN9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="QO9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="QP9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="QQ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="QR9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="QS9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="QT9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="QU9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="QV9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="QW9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="QX9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="QY9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="QZ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="RA9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="RB9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="RC9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="RD9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="RE9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="RF9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="RG9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="RH9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="RI9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="RJ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="RK9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="RL9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="RM9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="RN9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="RO9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="RP9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="RQ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="RR9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="RS9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="RT9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="RU9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="RV9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="RW9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="RX9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="RY9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="RZ9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="SA9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="SB9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="SC9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="SD9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="SE9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="SF9" s="119" t="str">
         <f t="shared" ca="1" si="518"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="SG9" s="119" t="str">
         <f t="shared" ref="SG9:UH9" ca="1" si="519">LEFT(TEXT(SG7,"ddd"),1)</f>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="SH9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="SI9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="SJ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="SK9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="SL9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="SM9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="SN9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="SO9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="SP9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="SQ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="SR9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="SS9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="ST9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="SU9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="SV9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="SW9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="SX9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="SY9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="SZ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="TA9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="TB9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="TC9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="TD9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="TE9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="TF9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="TG9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="TH9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="TI9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="TJ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="TK9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="TL9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="TM9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="TN9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="TO9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="TP9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="TQ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="TR9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="TS9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="TT9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="TU9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="TV9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="TW9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="TX9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="TY9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="TZ9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="UA9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="UB9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="UC9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="UD9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="UE9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="UF9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="UG9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="UH9" s="119" t="str">
         <f t="shared" ca="1" si="519"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="UI9" s="119" t="str">
         <f t="shared" ref="UI9:UX9" ca="1" si="520">LEFT(TEXT(UI7,"ddd"),1)</f>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="UJ9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="UK9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="UL9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="UM9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="UN9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="UO9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="UP9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="UQ9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>p</v>
+        <v>M</v>
       </c>
       <c r="UR9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="US9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>ś</v>
+        <v>W</v>
       </c>
       <c r="UT9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>c</v>
+        <v>T</v>
       </c>
       <c r="UU9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>p</v>
+        <v>F</v>
       </c>
       <c r="UV9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="UW9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>n</v>
+        <v>S</v>
       </c>
       <c r="UX9" s="119" t="str">
         <f t="shared" ca="1" si="520"/>
-        <v>p</v>
+        <v>M</v>
       </c>
     </row>
     <row r="10" spans="1:570" ht="15" x14ac:dyDescent="0.25">
@@ -31496,7 +31721,7 @@
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="E9:E17">
-    <cfRule type="dataBar" priority="474">
+    <cfRule type="dataBar" priority="486">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -31510,1316 +31735,1316 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:GP6">
-    <cfRule type="expression" dxfId="317" priority="472">
+    <cfRule type="expression" dxfId="11" priority="484">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:GP6">
-    <cfRule type="expression" dxfId="316" priority="471">
+    <cfRule type="expression" dxfId="10" priority="483">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="473">
+    <cfRule type="expression" dxfId="9" priority="485">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:AG16 AI10:GA16">
-    <cfRule type="expression" dxfId="314" priority="476" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="488" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="489" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="490" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="491" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="492" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:AG17 AI17:BL17">
-    <cfRule type="expression" dxfId="309" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="494" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="483" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="495" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="496" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="497" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="498" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN17:BU17">
-    <cfRule type="expression" dxfId="304" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="467" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",BN$7&gt;=#REF!,BN$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="468" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",BN$7&gt;=#REF!,BN$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="469" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",BN$7&gt;=#REF!,BN$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="470" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",BN$7&gt;=#REF!,BN$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="471" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,BN$7&gt;=#REF!,BN$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV17:BZ17">
-    <cfRule type="expression" dxfId="299" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="452" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",BV$7&gt;=#REF!,BV$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="453" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",BV$7&gt;=#REF!,BV$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="454" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",BV$7&gt;=#REF!,BV$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="455" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",BV$7&gt;=#REF!,BV$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="456" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,BV$7&gt;=#REF!,BV$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM7:BS8">
-    <cfRule type="expression" dxfId="294" priority="430">
+    <cfRule type="expression" dxfId="335" priority="442">
       <formula>AND(TODAY()&gt;=BM$7,TODAY()&lt;BN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA17:GP17">
-    <cfRule type="expression" dxfId="293" priority="396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",CA$7&gt;=#REF!,CA$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",CA$7&gt;=#REF!,CA$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="410" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",CA$7&gt;=#REF!,CA$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="411" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",CA$7&gt;=#REF!,CA$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="412" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,CA$7&gt;=#REF!,CA$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT7:BZ8">
-    <cfRule type="expression" dxfId="288" priority="362">
+    <cfRule type="expression" dxfId="329" priority="374">
       <formula>AND(TODAY()&gt;=BT$7,TODAY()&lt;BU$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:DW8">
-    <cfRule type="expression" dxfId="287" priority="361">
+    <cfRule type="expression" dxfId="328" priority="373">
       <formula>AND(TODAY()&gt;=CA$7,TODAY()&lt;CB$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX7:ED8">
-    <cfRule type="expression" dxfId="286" priority="360">
+    <cfRule type="expression" dxfId="327" priority="372">
       <formula>AND(TODAY()&gt;=DX$7,TODAY()&lt;DY$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EE7:EK8">
-    <cfRule type="expression" dxfId="285" priority="359">
+    <cfRule type="expression" dxfId="326" priority="371">
       <formula>AND(TODAY()&gt;=EE$7,TODAY()&lt;EF$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL7:FF8 FU7:GA8">
-    <cfRule type="expression" dxfId="284" priority="357">
+    <cfRule type="expression" dxfId="325" priority="369">
       <formula>AND(TODAY()&gt;=EL$7,TODAY()&lt;EM$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG7:FM8">
-    <cfRule type="expression" dxfId="283" priority="356">
+    <cfRule type="expression" dxfId="324" priority="368">
       <formula>AND(TODAY()&gt;=FG$7,TODAY()&lt;FH$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN7:FT8">
-    <cfRule type="expression" dxfId="282" priority="355">
+    <cfRule type="expression" dxfId="323" priority="367">
       <formula>AND(TODAY()&gt;=FN$7,TODAY()&lt;FO$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="expression" dxfId="281" priority="348">
+    <cfRule type="expression" dxfId="322" priority="360">
       <formula>AND(TODAY()&gt;=AH$7,TODAY()&lt;AI$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="expression" dxfId="280" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="361" stopIfTrue="1">
       <formula>AND($C11="Niskie ryzyko",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="362" stopIfTrue="1">
       <formula>AND($C11="Wysokie ryzyko",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="363" stopIfTrue="1">
       <formula>AND($C11="Zgodnie z planem",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="364" stopIfTrue="1">
       <formula>AND($C11="Średnie ryzyko",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="365" stopIfTrue="1">
       <formula>AND(LEN($C11)=0,AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ17:HX17">
-    <cfRule type="expression" dxfId="275" priority="328">
+    <cfRule type="expression" dxfId="316" priority="340">
       <formula>AND(TODAY()&gt;=GQ$7,TODAY()&lt;GR$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ6:GV6 GX6:HC6 HE6:HJ6 HL6:HQ6 HS6:HX6">
-    <cfRule type="expression" dxfId="274" priority="330">
+    <cfRule type="expression" dxfId="315" priority="342">
       <formula>AND(GQ$7&lt;=EOMONTH($I$7,2),GQ$7&gt;EOMONTH($I$7,0),GQ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ6:GV6 GX6:HC6 HE6:HJ6 HL6:HQ6 HS6:HX6">
-    <cfRule type="expression" dxfId="273" priority="329">
+    <cfRule type="expression" dxfId="314" priority="341">
       <formula>AND(GQ$7&lt;=EOMONTH($I$7,1),GQ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="331">
+    <cfRule type="expression" dxfId="313" priority="343">
       <formula>GQ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ17:HX17">
-    <cfRule type="expression" dxfId="271" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="335" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",GQ$7&gt;=#REF!,GQ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="336" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",GQ$7&gt;=#REF!,GQ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="337" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",GQ$7&gt;=#REF!,GQ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="338" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",GQ$7&gt;=#REF!,GQ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="339" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,GQ$7&gt;=#REF!,GQ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GB10:HC16">
-    <cfRule type="expression" dxfId="266" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="325" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",GB$7&gt;=$F10,GB$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="326" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",GB$7&gt;=$F10,GB$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="327" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",GB$7&gt;=$F10,GB$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="328" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",GB$7&gt;=$F10,GB$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="329" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,GB$7&gt;=$F10,GB$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GB7:GH8 GW7:HC8">
-    <cfRule type="expression" dxfId="261" priority="311">
+    <cfRule type="expression" dxfId="302" priority="323">
       <formula>AND(TODAY()&gt;=GB$7,TODAY()&lt;GC$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GI7:GO8">
-    <cfRule type="expression" dxfId="260" priority="310">
+    <cfRule type="expression" dxfId="301" priority="322">
       <formula>AND(TODAY()&gt;=GI$7,TODAY()&lt;GJ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP7:GV8">
-    <cfRule type="expression" dxfId="259" priority="309">
+    <cfRule type="expression" dxfId="300" priority="321">
       <formula>AND(TODAY()&gt;=GP$7,TODAY()&lt;GQ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD10:HX16">
-    <cfRule type="expression" dxfId="258" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="315" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",HD$7&gt;=$F10,HD$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="316" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",HD$7&gt;=$F10,HD$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="317" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",HD$7&gt;=$F10,HD$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="318" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",HD$7&gt;=$F10,HD$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="319" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,HD$7&gt;=$F10,HD$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD7:HJ8">
-    <cfRule type="expression" dxfId="253" priority="301">
+    <cfRule type="expression" dxfId="294" priority="313">
       <formula>AND(TODAY()&gt;=HD$7,TODAY()&lt;HE$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK7:HQ8">
-    <cfRule type="expression" dxfId="252" priority="300">
+    <cfRule type="expression" dxfId="293" priority="312">
       <formula>AND(TODAY()&gt;=HK$7,TODAY()&lt;HL$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR7:HX8">
-    <cfRule type="expression" dxfId="251" priority="299">
+    <cfRule type="expression" dxfId="292" priority="311">
       <formula>AND(TODAY()&gt;=HR$7,TODAY()&lt;HS$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY17:KI17">
-    <cfRule type="expression" dxfId="250" priority="275">
+    <cfRule type="expression" dxfId="291" priority="287">
       <formula>AND(TODAY()&gt;=HY$7,TODAY()&lt;HZ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HZ6:IE6 IG6:IL6 IN6:IS6 IU6:IZ6 JB6:JG6 JI6:JN6 JP6:JU6 JW6:KB6 KD6:KI6">
-    <cfRule type="expression" dxfId="249" priority="277">
+    <cfRule type="expression" dxfId="290" priority="289">
       <formula>AND(HZ$7&lt;=EOMONTH($I$7,2),HZ$7&gt;EOMONTH($I$7,0),HZ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HZ6:IE6 IG6:IL6 IN6:IS6 IU6:IZ6 JB6:JG6 JI6:JN6 JP6:JU6 JW6:KB6 KD6:KI6">
-    <cfRule type="expression" dxfId="248" priority="276">
+    <cfRule type="expression" dxfId="289" priority="288">
       <formula>AND(HZ$7&lt;=EOMONTH($I$7,1),HZ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="278">
+    <cfRule type="expression" dxfId="288" priority="290">
       <formula>HZ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY17:KI17">
-    <cfRule type="expression" dxfId="246" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="282" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",HY$7&gt;=#REF!,HY$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="283" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",HY$7&gt;=#REF!,HY$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="284" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",HY$7&gt;=#REF!,HY$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="285" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",HY$7&gt;=#REF!,HY$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="286" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,HY$7&gt;=#REF!,HY$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY10:KI16">
-    <cfRule type="expression" dxfId="241" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="275" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",HY$7&gt;=$F10,HY$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="276" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",HY$7&gt;=$F10,HY$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="277" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",HY$7&gt;=$F10,HY$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="278" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",HY$7&gt;=$F10,HY$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="279" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,HY$7&gt;=$F10,HY$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY7:KI8">
-    <cfRule type="expression" dxfId="236" priority="261">
+    <cfRule type="expression" dxfId="277" priority="273">
       <formula>AND(TODAY()&gt;=HY$7,TODAY()&lt;HZ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ17:LL17">
-    <cfRule type="expression" dxfId="235" priority="256">
+    <cfRule type="expression" dxfId="276" priority="268">
       <formula>AND(TODAY()&gt;=KJ$7,TODAY()&lt;KK$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KK6:KP6 KR6:KW6 KY6:LD6 LF6:LK6">
-    <cfRule type="expression" dxfId="234" priority="258">
+    <cfRule type="expression" dxfId="275" priority="270">
       <formula>AND(KK$7&lt;=EOMONTH($I$7,2),KK$7&gt;EOMONTH($I$7,0),KK$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KK6:KP6 KR6:KW6 KY6:LD6 LF6:LK6">
-    <cfRule type="expression" dxfId="233" priority="257">
+    <cfRule type="expression" dxfId="274" priority="269">
       <formula>AND(KK$7&lt;=EOMONTH($I$7,1),KK$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="259">
+    <cfRule type="expression" dxfId="273" priority="271">
       <formula>KK$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ17:LL17">
-    <cfRule type="expression" dxfId="231" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="263" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",KJ$7&gt;=#REF!,KJ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="264" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",KJ$7&gt;=#REF!,KJ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="265" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",KJ$7&gt;=#REF!,KJ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="266" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",KJ$7&gt;=#REF!,KJ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="267" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,KJ$7&gt;=#REF!,KJ$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ10:LL16">
-    <cfRule type="expression" dxfId="226" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="256" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",KJ$7&gt;=$F10,KJ$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="257" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",KJ$7&gt;=$F10,KJ$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="258" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",KJ$7&gt;=$F10,KJ$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="259" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",KJ$7&gt;=$F10,KJ$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="260" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,KJ$7&gt;=$F10,KJ$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ7:LL8">
-    <cfRule type="expression" dxfId="221" priority="242">
+    <cfRule type="expression" dxfId="262" priority="254">
       <formula>AND(TODAY()&gt;=KJ$7,TODAY()&lt;KK$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW6">
-    <cfRule type="expression" dxfId="220" priority="239">
+    <cfRule type="expression" dxfId="261" priority="251">
       <formula>AND(GW$7&lt;=EOMONTH($I$7,2),GW$7&gt;EOMONTH($I$7,0),GW$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GW6">
-    <cfRule type="expression" dxfId="219" priority="238">
+    <cfRule type="expression" dxfId="260" priority="250">
       <formula>AND(GW$7&lt;=EOMONTH($I$7,1),GW$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="240">
+    <cfRule type="expression" dxfId="259" priority="252">
       <formula>GW$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD6">
-    <cfRule type="expression" dxfId="217" priority="236">
+    <cfRule type="expression" dxfId="258" priority="248">
       <formula>AND(HD$7&lt;=EOMONTH($I$7,2),HD$7&gt;EOMONTH($I$7,0),HD$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HD6">
-    <cfRule type="expression" dxfId="216" priority="235">
+    <cfRule type="expression" dxfId="257" priority="247">
       <formula>AND(HD$7&lt;=EOMONTH($I$7,1),HD$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="237">
+    <cfRule type="expression" dxfId="256" priority="249">
       <formula>HD$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK6">
-    <cfRule type="expression" dxfId="214" priority="233">
+    <cfRule type="expression" dxfId="255" priority="245">
       <formula>AND(HK$7&lt;=EOMONTH($I$7,2),HK$7&gt;EOMONTH($I$7,0),HK$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK6">
-    <cfRule type="expression" dxfId="213" priority="232">
+    <cfRule type="expression" dxfId="254" priority="244">
       <formula>AND(HK$7&lt;=EOMONTH($I$7,1),HK$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="234">
+    <cfRule type="expression" dxfId="253" priority="246">
       <formula>HK$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR6">
-    <cfRule type="expression" dxfId="211" priority="230">
+    <cfRule type="expression" dxfId="252" priority="242">
       <formula>AND(HR$7&lt;=EOMONTH($I$7,2),HR$7&gt;EOMONTH($I$7,0),HR$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR6">
-    <cfRule type="expression" dxfId="210" priority="229">
+    <cfRule type="expression" dxfId="251" priority="241">
       <formula>AND(HR$7&lt;=EOMONTH($I$7,1),HR$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="231">
+    <cfRule type="expression" dxfId="250" priority="243">
       <formula>HR$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY6">
-    <cfRule type="expression" dxfId="208" priority="227">
+    <cfRule type="expression" dxfId="249" priority="239">
       <formula>AND(HY$7&lt;=EOMONTH($I$7,2),HY$7&gt;EOMONTH($I$7,0),HY$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY6">
-    <cfRule type="expression" dxfId="207" priority="226">
+    <cfRule type="expression" dxfId="248" priority="238">
       <formula>AND(HY$7&lt;=EOMONTH($I$7,1),HY$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="228">
+    <cfRule type="expression" dxfId="247" priority="240">
       <formula>HY$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF6">
-    <cfRule type="expression" dxfId="205" priority="224">
+    <cfRule type="expression" dxfId="246" priority="236">
       <formula>AND(IF$7&lt;=EOMONTH($I$7,2),IF$7&gt;EOMONTH($I$7,0),IF$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF6">
-    <cfRule type="expression" dxfId="204" priority="223">
+    <cfRule type="expression" dxfId="245" priority="235">
       <formula>AND(IF$7&lt;=EOMONTH($I$7,1),IF$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="225">
+    <cfRule type="expression" dxfId="244" priority="237">
       <formula>IF$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM6">
-    <cfRule type="expression" dxfId="202" priority="221">
+    <cfRule type="expression" dxfId="243" priority="233">
       <formula>AND(IM$7&lt;=EOMONTH($I$7,2),IM$7&gt;EOMONTH($I$7,0),IM$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IM6">
-    <cfRule type="expression" dxfId="201" priority="220">
+    <cfRule type="expression" dxfId="242" priority="232">
       <formula>AND(IM$7&lt;=EOMONTH($I$7,1),IM$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="222">
+    <cfRule type="expression" dxfId="241" priority="234">
       <formula>IM$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IT6">
-    <cfRule type="expression" dxfId="199" priority="218">
+    <cfRule type="expression" dxfId="240" priority="230">
       <formula>AND(IT$7&lt;=EOMONTH($I$7,2),IT$7&gt;EOMONTH($I$7,0),IT$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IT6">
-    <cfRule type="expression" dxfId="198" priority="217">
+    <cfRule type="expression" dxfId="239" priority="229">
       <formula>AND(IT$7&lt;=EOMONTH($I$7,1),IT$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="219">
+    <cfRule type="expression" dxfId="238" priority="231">
       <formula>IT$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA6">
-    <cfRule type="expression" dxfId="196" priority="215">
+    <cfRule type="expression" dxfId="237" priority="227">
       <formula>AND(JA$7&lt;=EOMONTH($I$7,2),JA$7&gt;EOMONTH($I$7,0),JA$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JA6">
-    <cfRule type="expression" dxfId="195" priority="214">
+    <cfRule type="expression" dxfId="236" priority="226">
       <formula>AND(JA$7&lt;=EOMONTH($I$7,1),JA$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="216">
+    <cfRule type="expression" dxfId="235" priority="228">
       <formula>JA$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JH6">
-    <cfRule type="expression" dxfId="193" priority="212">
+    <cfRule type="expression" dxfId="234" priority="224">
       <formula>AND(JH$7&lt;=EOMONTH($I$7,2),JH$7&gt;EOMONTH($I$7,0),JH$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JH6">
-    <cfRule type="expression" dxfId="192" priority="211">
+    <cfRule type="expression" dxfId="233" priority="223">
       <formula>AND(JH$7&lt;=EOMONTH($I$7,1),JH$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="213">
+    <cfRule type="expression" dxfId="232" priority="225">
       <formula>JH$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO6">
-    <cfRule type="expression" dxfId="190" priority="209">
+    <cfRule type="expression" dxfId="231" priority="221">
       <formula>AND(JO$7&lt;=EOMONTH($I$7,2),JO$7&gt;EOMONTH($I$7,0),JO$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JO6">
-    <cfRule type="expression" dxfId="189" priority="208">
+    <cfRule type="expression" dxfId="230" priority="220">
       <formula>AND(JO$7&lt;=EOMONTH($I$7,1),JO$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="210">
+    <cfRule type="expression" dxfId="229" priority="222">
       <formula>JO$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV6">
-    <cfRule type="expression" dxfId="187" priority="206">
+    <cfRule type="expression" dxfId="228" priority="218">
       <formula>AND(JV$7&lt;=EOMONTH($I$7,2),JV$7&gt;EOMONTH($I$7,0),JV$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JV6">
-    <cfRule type="expression" dxfId="186" priority="205">
+    <cfRule type="expression" dxfId="227" priority="217">
       <formula>AND(JV$7&lt;=EOMONTH($I$7,1),JV$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="207">
+    <cfRule type="expression" dxfId="226" priority="219">
       <formula>JV$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KC6">
-    <cfRule type="expression" dxfId="184" priority="203">
+    <cfRule type="expression" dxfId="225" priority="215">
       <formula>AND(KC$7&lt;=EOMONTH($I$7,2),KC$7&gt;EOMONTH($I$7,0),KC$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KC6">
-    <cfRule type="expression" dxfId="183" priority="202">
+    <cfRule type="expression" dxfId="224" priority="214">
       <formula>AND(KC$7&lt;=EOMONTH($I$7,1),KC$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="204">
+    <cfRule type="expression" dxfId="223" priority="216">
       <formula>KC$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ6">
-    <cfRule type="expression" dxfId="181" priority="200">
+    <cfRule type="expression" dxfId="222" priority="212">
       <formula>AND(KJ$7&lt;=EOMONTH($I$7,2),KJ$7&gt;EOMONTH($I$7,0),KJ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KJ6">
-    <cfRule type="expression" dxfId="180" priority="199">
+    <cfRule type="expression" dxfId="221" priority="211">
       <formula>AND(KJ$7&lt;=EOMONTH($I$7,1),KJ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="201">
+    <cfRule type="expression" dxfId="220" priority="213">
       <formula>KJ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KQ6">
-    <cfRule type="expression" dxfId="178" priority="197">
+    <cfRule type="expression" dxfId="219" priority="209">
       <formula>AND(KQ$7&lt;=EOMONTH($I$7,2),KQ$7&gt;EOMONTH($I$7,0),KQ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KQ6">
-    <cfRule type="expression" dxfId="177" priority="196">
+    <cfRule type="expression" dxfId="218" priority="208">
       <formula>AND(KQ$7&lt;=EOMONTH($I$7,1),KQ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="198">
+    <cfRule type="expression" dxfId="217" priority="210">
       <formula>KQ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KX6">
-    <cfRule type="expression" dxfId="175" priority="194">
+    <cfRule type="expression" dxfId="216" priority="206">
       <formula>AND(KX$7&lt;=EOMONTH($I$7,2),KX$7&gt;EOMONTH($I$7,0),KX$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="KX6">
-    <cfRule type="expression" dxfId="174" priority="193">
+    <cfRule type="expression" dxfId="215" priority="205">
       <formula>AND(KX$7&lt;=EOMONTH($I$7,1),KX$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="195">
+    <cfRule type="expression" dxfId="214" priority="207">
       <formula>KX$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE6">
-    <cfRule type="expression" dxfId="172" priority="191">
+    <cfRule type="expression" dxfId="213" priority="203">
       <formula>AND(LE$7&lt;=EOMONTH($I$7,2),LE$7&gt;EOMONTH($I$7,0),LE$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE6">
-    <cfRule type="expression" dxfId="171" priority="190">
+    <cfRule type="expression" dxfId="212" priority="202">
       <formula>AND(LE$7&lt;=EOMONTH($I$7,1),LE$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="192">
+    <cfRule type="expression" dxfId="211" priority="204">
       <formula>LE$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM17:NO17">
-    <cfRule type="expression" dxfId="169" priority="186">
+    <cfRule type="expression" dxfId="210" priority="198">
       <formula>AND(TODAY()&gt;=LM$7,TODAY()&lt;LN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM17:NO17">
-    <cfRule type="expression" dxfId="168" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="193" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",LM$7&gt;=#REF!,LM$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="194" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",LM$7&gt;=#REF!,LM$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="195" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",LM$7&gt;=#REF!,LM$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="196" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",LM$7&gt;=#REF!,LM$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="197" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,LM$7&gt;=#REF!,LM$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM10:NO16">
-    <cfRule type="expression" dxfId="163" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="186" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",LM$7&gt;=$F10,LM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="187" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",LM$7&gt;=$F10,LM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="188" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",LM$7&gt;=$F10,LM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="189" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",LM$7&gt;=$F10,LM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="190" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,LM$7&gt;=$F10,LM$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM7:NO8">
-    <cfRule type="expression" dxfId="158" priority="172">
+    <cfRule type="expression" dxfId="199" priority="184">
       <formula>AND(TODAY()&gt;=LM$7,TODAY()&lt;LN$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM6:LR6 LT6:LY6 MA6:MF6 MH6:MM6 MO6:MT6 MV6:NA6 NC6:NH6 NJ6:NO6">
-    <cfRule type="expression" dxfId="157" priority="169">
+    <cfRule type="expression" dxfId="198" priority="181">
       <formula>AND(LM$7&lt;=EOMONTH($I$7,2),LM$7&gt;EOMONTH($I$7,0),LM$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LM6:LR6 LT6:LY6 MA6:MF6 MH6:MM6 MO6:MT6 MV6:NA6 NC6:NH6 NJ6:NO6">
-    <cfRule type="expression" dxfId="156" priority="168">
+    <cfRule type="expression" dxfId="197" priority="180">
       <formula>AND(LM$7&lt;=EOMONTH($I$7,1),LM$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="170">
+    <cfRule type="expression" dxfId="196" priority="182">
       <formula>LM$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LL6">
-    <cfRule type="expression" dxfId="154" priority="166">
+    <cfRule type="expression" dxfId="195" priority="178">
       <formula>AND(LL$7&lt;=EOMONTH($I$7,2),LL$7&gt;EOMONTH($I$7,0),LL$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LL6">
-    <cfRule type="expression" dxfId="153" priority="165">
+    <cfRule type="expression" dxfId="194" priority="177">
       <formula>AND(LL$7&lt;=EOMONTH($I$7,1),LL$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="167">
+    <cfRule type="expression" dxfId="193" priority="179">
       <formula>LL$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LS6">
-    <cfRule type="expression" dxfId="151" priority="163">
+    <cfRule type="expression" dxfId="192" priority="175">
       <formula>AND(LS$7&lt;=EOMONTH($I$7,2),LS$7&gt;EOMONTH($I$7,0),LS$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LS6">
-    <cfRule type="expression" dxfId="150" priority="162">
+    <cfRule type="expression" dxfId="191" priority="174">
       <formula>AND(LS$7&lt;=EOMONTH($I$7,1),LS$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="164">
+    <cfRule type="expression" dxfId="190" priority="176">
       <formula>LS$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LZ6">
-    <cfRule type="expression" dxfId="148" priority="160">
+    <cfRule type="expression" dxfId="189" priority="172">
       <formula>AND(LZ$7&lt;=EOMONTH($I$7,2),LZ$7&gt;EOMONTH($I$7,0),LZ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LZ6">
-    <cfRule type="expression" dxfId="147" priority="159">
+    <cfRule type="expression" dxfId="188" priority="171">
       <formula>AND(LZ$7&lt;=EOMONTH($I$7,1),LZ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="161">
+    <cfRule type="expression" dxfId="187" priority="173">
       <formula>LZ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG6">
-    <cfRule type="expression" dxfId="145" priority="157">
+    <cfRule type="expression" dxfId="186" priority="169">
       <formula>AND(MG$7&lt;=EOMONTH($I$7,2),MG$7&gt;EOMONTH($I$7,0),MG$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MG6">
-    <cfRule type="expression" dxfId="144" priority="156">
+    <cfRule type="expression" dxfId="185" priority="168">
       <formula>AND(MG$7&lt;=EOMONTH($I$7,1),MG$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="158">
+    <cfRule type="expression" dxfId="184" priority="170">
       <formula>MG$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MN6">
-    <cfRule type="expression" dxfId="142" priority="154">
+    <cfRule type="expression" dxfId="183" priority="166">
       <formula>AND(MN$7&lt;=EOMONTH($I$7,2),MN$7&gt;EOMONTH($I$7,0),MN$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MN6">
-    <cfRule type="expression" dxfId="141" priority="153">
+    <cfRule type="expression" dxfId="182" priority="165">
       <formula>AND(MN$7&lt;=EOMONTH($I$7,1),MN$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="155">
+    <cfRule type="expression" dxfId="181" priority="167">
       <formula>MN$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MU6">
-    <cfRule type="expression" dxfId="139" priority="151">
+    <cfRule type="expression" dxfId="180" priority="163">
       <formula>AND(MU$7&lt;=EOMONTH($I$7,2),MU$7&gt;EOMONTH($I$7,0),MU$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MU6">
-    <cfRule type="expression" dxfId="138" priority="150">
+    <cfRule type="expression" dxfId="179" priority="162">
       <formula>AND(MU$7&lt;=EOMONTH($I$7,1),MU$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="152">
+    <cfRule type="expression" dxfId="178" priority="164">
       <formula>MU$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NB6">
-    <cfRule type="expression" dxfId="136" priority="148">
+    <cfRule type="expression" dxfId="177" priority="160">
       <formula>AND(NB$7&lt;=EOMONTH($I$7,2),NB$7&gt;EOMONTH($I$7,0),NB$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NB6">
-    <cfRule type="expression" dxfId="135" priority="147">
+    <cfRule type="expression" dxfId="176" priority="159">
       <formula>AND(NB$7&lt;=EOMONTH($I$7,1),NB$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="149">
+    <cfRule type="expression" dxfId="175" priority="161">
       <formula>NB$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NI6">
-    <cfRule type="expression" dxfId="133" priority="145">
+    <cfRule type="expression" dxfId="174" priority="157">
       <formula>AND(NI$7&lt;=EOMONTH($I$7,2),NI$7&gt;EOMONTH($I$7,0),NI$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NI6">
-    <cfRule type="expression" dxfId="132" priority="144">
+    <cfRule type="expression" dxfId="173" priority="156">
       <formula>AND(NI$7&lt;=EOMONTH($I$7,1),NI$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="146">
+    <cfRule type="expression" dxfId="172" priority="158">
       <formula>NI$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP17:PT17">
-    <cfRule type="expression" dxfId="130" priority="143">
+    <cfRule type="expression" dxfId="171" priority="155">
       <formula>AND(TODAY()&gt;=NP$7,TODAY()&lt;NQ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP17:PT17">
-    <cfRule type="expression" dxfId="129" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="150" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",NP$7&gt;=#REF!,NP$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="151" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",NP$7&gt;=#REF!,NP$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="152" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",NP$7&gt;=#REF!,NP$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="153" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",NP$7&gt;=#REF!,NP$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="154" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,NP$7&gt;=#REF!,NP$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP10:PT16">
-    <cfRule type="expression" dxfId="124" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="143" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",NP$7&gt;=$F10,NP$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="144" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",NP$7&gt;=$F10,NP$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="145" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",NP$7&gt;=$F10,NP$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="146" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",NP$7&gt;=$F10,NP$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="147" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,NP$7&gt;=$F10,NP$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP7:PT8">
-    <cfRule type="expression" dxfId="119" priority="129">
+    <cfRule type="expression" dxfId="160" priority="141">
       <formula>AND(TODAY()&gt;=NP$7,TODAY()&lt;NQ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NQ6:NV6 NX6:OC6 OE6:OJ6 OL6:OQ6 OS6:OX6 OZ6:PE6 PG6:PL6 PN6:PS6">
-    <cfRule type="expression" dxfId="118" priority="126">
+    <cfRule type="expression" dxfId="159" priority="138">
       <formula>AND(NQ$7&lt;=EOMONTH($I$7,2),NQ$7&gt;EOMONTH($I$7,0),NQ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NQ6:NV6 NX6:OC6 OE6:OJ6 OL6:OQ6 OS6:OX6 OZ6:PE6 PG6:PL6 PN6:PS6">
-    <cfRule type="expression" dxfId="117" priority="125">
+    <cfRule type="expression" dxfId="158" priority="137">
       <formula>AND(NQ$7&lt;=EOMONTH($I$7,1),NQ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="127">
+    <cfRule type="expression" dxfId="157" priority="139">
       <formula>NQ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP6">
-    <cfRule type="expression" dxfId="115" priority="123">
+    <cfRule type="expression" dxfId="156" priority="135">
       <formula>AND(NP$7&lt;=EOMONTH($I$7,2),NP$7&gt;EOMONTH($I$7,0),NP$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NP6">
-    <cfRule type="expression" dxfId="114" priority="122">
+    <cfRule type="expression" dxfId="155" priority="134">
       <formula>AND(NP$7&lt;=EOMONTH($I$7,1),NP$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="124">
+    <cfRule type="expression" dxfId="154" priority="136">
       <formula>NP$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NW6">
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="153" priority="132">
       <formula>AND(NW$7&lt;=EOMONTH($I$7,2),NW$7&gt;EOMONTH($I$7,0),NW$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="NW6">
-    <cfRule type="expression" dxfId="111" priority="119">
+    <cfRule type="expression" dxfId="152" priority="131">
       <formula>AND(NW$7&lt;=EOMONTH($I$7,1),NW$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="121">
+    <cfRule type="expression" dxfId="151" priority="133">
       <formula>NW$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OD6">
-    <cfRule type="expression" dxfId="109" priority="117">
+    <cfRule type="expression" dxfId="150" priority="129">
       <formula>AND(OD$7&lt;=EOMONTH($I$7,2),OD$7&gt;EOMONTH($I$7,0),OD$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OD6">
-    <cfRule type="expression" dxfId="108" priority="116">
+    <cfRule type="expression" dxfId="149" priority="128">
       <formula>AND(OD$7&lt;=EOMONTH($I$7,1),OD$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="118">
+    <cfRule type="expression" dxfId="148" priority="130">
       <formula>OD$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OK6">
-    <cfRule type="expression" dxfId="106" priority="114">
+    <cfRule type="expression" dxfId="147" priority="126">
       <formula>AND(OK$7&lt;=EOMONTH($I$7,2),OK$7&gt;EOMONTH($I$7,0),OK$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OK6">
-    <cfRule type="expression" dxfId="105" priority="113">
+    <cfRule type="expression" dxfId="146" priority="125">
       <formula>AND(OK$7&lt;=EOMONTH($I$7,1),OK$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="115">
+    <cfRule type="expression" dxfId="145" priority="127">
       <formula>OK$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OR6">
-    <cfRule type="expression" dxfId="103" priority="111">
+    <cfRule type="expression" dxfId="144" priority="123">
       <formula>AND(OR$7&lt;=EOMONTH($I$7,2),OR$7&gt;EOMONTH($I$7,0),OR$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OR6">
-    <cfRule type="expression" dxfId="102" priority="110">
+    <cfRule type="expression" dxfId="143" priority="122">
       <formula>AND(OR$7&lt;=EOMONTH($I$7,1),OR$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="112">
+    <cfRule type="expression" dxfId="142" priority="124">
       <formula>OR$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OY6">
-    <cfRule type="expression" dxfId="100" priority="108">
+    <cfRule type="expression" dxfId="141" priority="120">
       <formula>AND(OY$7&lt;=EOMONTH($I$7,2),OY$7&gt;EOMONTH($I$7,0),OY$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="OY6">
-    <cfRule type="expression" dxfId="99" priority="107">
+    <cfRule type="expression" dxfId="140" priority="119">
       <formula>AND(OY$7&lt;=EOMONTH($I$7,1),OY$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="109">
+    <cfRule type="expression" dxfId="139" priority="121">
       <formula>OY$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PF6">
-    <cfRule type="expression" dxfId="97" priority="105">
+    <cfRule type="expression" dxfId="138" priority="117">
       <formula>AND(PF$7&lt;=EOMONTH($I$7,2),PF$7&gt;EOMONTH($I$7,0),PF$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PF6">
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="137" priority="116">
       <formula>AND(PF$7&lt;=EOMONTH($I$7,1),PF$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="106">
+    <cfRule type="expression" dxfId="136" priority="118">
       <formula>PF$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PM6">
-    <cfRule type="expression" dxfId="94" priority="102">
+    <cfRule type="expression" dxfId="135" priority="114">
       <formula>AND(PM$7&lt;=EOMONTH($I$7,2),PM$7&gt;EOMONTH($I$7,0),PM$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PM6">
-    <cfRule type="expression" dxfId="93" priority="101">
+    <cfRule type="expression" dxfId="134" priority="113">
       <formula>AND(PM$7&lt;=EOMONTH($I$7,1),PM$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="103">
+    <cfRule type="expression" dxfId="133" priority="115">
       <formula>PM$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PT6">
-    <cfRule type="expression" dxfId="91" priority="99">
+    <cfRule type="expression" dxfId="132" priority="111">
       <formula>AND(PT$7&lt;=EOMONTH($I$7,2),PT$7&gt;EOMONTH($I$7,0),PT$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PT6">
-    <cfRule type="expression" dxfId="90" priority="98">
+    <cfRule type="expression" dxfId="131" priority="110">
       <formula>AND(PT$7&lt;=EOMONTH($I$7,1),PT$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="100">
+    <cfRule type="expression" dxfId="130" priority="112">
       <formula>PT$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU17:UH17">
-    <cfRule type="expression" dxfId="88" priority="97">
+    <cfRule type="expression" dxfId="129" priority="109">
       <formula>AND(TODAY()&gt;=PU$7,TODAY()&lt;PV$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU17:UH17">
-    <cfRule type="expression" dxfId="87" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="104" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",PU$7&gt;=#REF!,PU$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="105" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",PU$7&gt;=#REF!,PU$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="106" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",PU$7&gt;=#REF!,PU$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="107" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",PU$7&gt;=#REF!,PU$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="108" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,PU$7&gt;=#REF!,PU$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU10:UH16">
-    <cfRule type="expression" dxfId="82" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="97" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",PU$7&gt;=$F10,PU$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="98" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",PU$7&gt;=$F10,PU$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="99" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",PU$7&gt;=$F10,PU$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="100" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",PU$7&gt;=$F10,PU$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="101" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,PU$7&gt;=$F10,PU$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU7:UH8">
-    <cfRule type="expression" dxfId="77" priority="83">
+    <cfRule type="expression" dxfId="118" priority="95">
       <formula>AND(TODAY()&gt;=PU$7,TODAY()&lt;PV$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU6:PZ6 QB6:QG6 QI6:QN6 QP6:QU6 QW6:RB6 RD6:RI6 RK6:RP6 RR6:RW6 RY6:SD6 SF6:SK6 SM6:SR6 ST6:SY6 TA6:TF6 TH6:TM6 TO6:TT6 TV6:UA6 UC6:UH6">
-    <cfRule type="expression" dxfId="76" priority="80">
+    <cfRule type="expression" dxfId="117" priority="92">
       <formula>AND(PU$7&lt;=EOMONTH($I$7,2),PU$7&gt;EOMONTH($I$7,0),PU$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="PU6:PZ6 QB6:QG6 QI6:QN6 QP6:QU6 QW6:RB6 RD6:RI6 RK6:RP6 RR6:RW6 RY6:SD6 SF6:SK6 SM6:SR6 ST6:SY6 TA6:TF6 TH6:TM6 TO6:TT6 TV6:UA6 UC6:UH6">
-    <cfRule type="expression" dxfId="75" priority="79">
+    <cfRule type="expression" dxfId="116" priority="91">
       <formula>AND(PU$7&lt;=EOMONTH($I$7,1),PU$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="81">
+    <cfRule type="expression" dxfId="115" priority="93">
       <formula>PU$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QA6">
-    <cfRule type="expression" dxfId="73" priority="77">
+    <cfRule type="expression" dxfId="114" priority="89">
       <formula>AND(QA$7&lt;=EOMONTH($I$7,2),QA$7&gt;EOMONTH($I$7,0),QA$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QA6">
-    <cfRule type="expression" dxfId="72" priority="76">
+    <cfRule type="expression" dxfId="113" priority="88">
       <formula>AND(QA$7&lt;=EOMONTH($I$7,1),QA$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="78">
+    <cfRule type="expression" dxfId="112" priority="90">
       <formula>QA$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QH6">
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="111" priority="86">
       <formula>AND(QH$7&lt;=EOMONTH($I$7,2),QH$7&gt;EOMONTH($I$7,0),QH$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QH6">
-    <cfRule type="expression" dxfId="69" priority="73">
+    <cfRule type="expression" dxfId="110" priority="85">
       <formula>AND(QH$7&lt;=EOMONTH($I$7,1),QH$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="75">
+    <cfRule type="expression" dxfId="109" priority="87">
       <formula>QH$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QO6">
-    <cfRule type="expression" dxfId="67" priority="71">
+    <cfRule type="expression" dxfId="108" priority="83">
       <formula>AND(QO$7&lt;=EOMONTH($I$7,2),QO$7&gt;EOMONTH($I$7,0),QO$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QO6">
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="107" priority="82">
       <formula>AND(QO$7&lt;=EOMONTH($I$7,1),QO$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="72">
+    <cfRule type="expression" dxfId="106" priority="84">
       <formula>QO$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QV6">
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="105" priority="80">
       <formula>AND(QV$7&lt;=EOMONTH($I$7,2),QV$7&gt;EOMONTH($I$7,0),QV$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="QV6">
-    <cfRule type="expression" dxfId="63" priority="67">
+    <cfRule type="expression" dxfId="104" priority="79">
       <formula>AND(QV$7&lt;=EOMONTH($I$7,1),QV$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="69">
+    <cfRule type="expression" dxfId="103" priority="81">
       <formula>QV$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RC6">
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="102" priority="77">
       <formula>AND(RC$7&lt;=EOMONTH($I$7,2),RC$7&gt;EOMONTH($I$7,0),RC$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RC6">
-    <cfRule type="expression" dxfId="60" priority="64">
+    <cfRule type="expression" dxfId="101" priority="76">
       <formula>AND(RC$7&lt;=EOMONTH($I$7,1),RC$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="66">
+    <cfRule type="expression" dxfId="100" priority="78">
       <formula>RC$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RJ6">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="99" priority="74">
       <formula>AND(RJ$7&lt;=EOMONTH($I$7,2),RJ$7&gt;EOMONTH($I$7,0),RJ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RJ6">
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="98" priority="73">
       <formula>AND(RJ$7&lt;=EOMONTH($I$7,1),RJ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="63">
+    <cfRule type="expression" dxfId="97" priority="75">
       <formula>RJ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RQ6">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="96" priority="71">
       <formula>AND(RQ$7&lt;=EOMONTH($I$7,2),RQ$7&gt;EOMONTH($I$7,0),RQ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RQ6">
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="95" priority="70">
       <formula>AND(RQ$7&lt;=EOMONTH($I$7,1),RQ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="94" priority="72">
       <formula>RQ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RX6">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="93" priority="68">
       <formula>AND(RX$7&lt;=EOMONTH($I$7,2),RX$7&gt;EOMONTH($I$7,0),RX$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="RX6">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="92" priority="67">
       <formula>AND(RX$7&lt;=EOMONTH($I$7,1),RX$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="57">
+    <cfRule type="expression" dxfId="91" priority="69">
       <formula>RX$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SE6">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="90" priority="65">
       <formula>AND(SE$7&lt;=EOMONTH($I$7,2),SE$7&gt;EOMONTH($I$7,0),SE$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SE6">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="89" priority="64">
       <formula>AND(SE$7&lt;=EOMONTH($I$7,1),SE$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="54">
+    <cfRule type="expression" dxfId="88" priority="66">
       <formula>SE$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SL6">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="87" priority="62">
       <formula>AND(SL$7&lt;=EOMONTH($I$7,2),SL$7&gt;EOMONTH($I$7,0),SL$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SL6">
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="86" priority="61">
       <formula>AND(SL$7&lt;=EOMONTH($I$7,1),SL$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="85" priority="63">
       <formula>SL$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SS6">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="84" priority="59">
       <formula>AND(SS$7&lt;=EOMONTH($I$7,2),SS$7&gt;EOMONTH($I$7,0),SS$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SS6">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="83" priority="58">
       <formula>AND(SS$7&lt;=EOMONTH($I$7,1),SS$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="48">
+    <cfRule type="expression" dxfId="82" priority="60">
       <formula>SS$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SZ6">
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="81" priority="56">
       <formula>AND(SZ$7&lt;=EOMONTH($I$7,2),SZ$7&gt;EOMONTH($I$7,0),SZ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="SZ6">
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="80" priority="55">
       <formula>AND(SZ$7&lt;=EOMONTH($I$7,1),SZ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="45">
+    <cfRule type="expression" dxfId="79" priority="57">
       <formula>SZ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TG6">
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="78" priority="53">
       <formula>AND(TG$7&lt;=EOMONTH($I$7,2),TG$7&gt;EOMONTH($I$7,0),TG$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TG6">
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="77" priority="52">
       <formula>AND(TG$7&lt;=EOMONTH($I$7,1),TG$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="42">
+    <cfRule type="expression" dxfId="76" priority="54">
       <formula>TG$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TN6">
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="75" priority="50">
       <formula>AND(TN$7&lt;=EOMONTH($I$7,2),TN$7&gt;EOMONTH($I$7,0),TN$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TN6">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="74" priority="49">
       <formula>AND(TN$7&lt;=EOMONTH($I$7,1),TN$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="39">
+    <cfRule type="expression" dxfId="73" priority="51">
       <formula>TN$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TU6">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="72" priority="47">
       <formula>AND(TU$7&lt;=EOMONTH($I$7,2),TU$7&gt;EOMONTH($I$7,0),TU$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="TU6">
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="71" priority="46">
       <formula>AND(TU$7&lt;=EOMONTH($I$7,1),TU$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="70" priority="48">
       <formula>TU$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UB6">
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="69" priority="44">
       <formula>AND(UB$7&lt;=EOMONTH($I$7,2),UB$7&gt;EOMONTH($I$7,0),UB$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UB6">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="68" priority="43">
       <formula>AND(UB$7&lt;=EOMONTH($I$7,1),UB$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="67" priority="45">
       <formula>UB$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI17:UX17">
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="66" priority="42">
       <formula>AND(TODAY()&gt;=UI$7,TODAY()&lt;UJ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI17:UX17">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="37" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",UI$7&gt;=#REF!,UI$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="38" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",UI$7&gt;=#REF!,UI$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="39" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",UI$7&gt;=#REF!,UI$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="40" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",UI$7&gt;=#REF!,UI$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="41" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,UI$7&gt;=#REF!,UI$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI10:UX16">
-    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="30" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",UI$7&gt;=$F10,UI$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="31" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",UI$7&gt;=$F10,UI$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="32" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",UI$7&gt;=$F10,UI$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="33" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",UI$7&gt;=$F10,UI$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="34" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,UI$7&gt;=$F10,UI$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI7:UX8">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="55" priority="28">
       <formula>AND(TODAY()&gt;=UI$7,TODAY()&lt;UJ$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:WS9">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UJ6:UO6 UQ6:UV6 UX6">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="52" priority="25">
       <formula>AND(UJ$7&lt;=EOMONTH($I$7,2),UJ$7&gt;EOMONTH($I$7,0),UJ$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UJ6:UO6 UQ6:UV6 UX6">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="51" priority="24">
       <formula>AND(UJ$7&lt;=EOMONTH($I$7,1),UJ$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>UJ$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI6">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="49" priority="22">
       <formula>AND(UI$7&lt;=EOMONTH($I$7,2),UI$7&gt;EOMONTH($I$7,0),UI$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UI6">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="48" priority="21">
       <formula>AND(UI$7&lt;=EOMONTH($I$7,1),UI$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>UI$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UP6">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>AND(UP$7&lt;=EOMONTH($I$7,2),UP$7&gt;EOMONTH($I$7,0),UP$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UP6">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="45" priority="18">
       <formula>AND(UP$7&lt;=EOMONTH($I$7,1),UP$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="44" priority="20">
       <formula>UP$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UW6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>AND(UW$7&lt;=EOMONTH($I$7,2),UW$7&gt;EOMONTH($I$7,0),UW$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="UW6">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND(UW$7&lt;=EOMONTH($I$7,1),UW$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>UW$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Przyrost przewijania" prompt="Zmiana tej liczby spowoduje przewinięcie widoku wykresu Gantta." sqref="C7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Przyrost przewijania" prompt="Zmiana tej liczby spowoduje przewinięcie widoku wykresu Gantta." sqref="C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Cel,Punkt kontrolny,Zgodnie z planem, Niskie ryzyko, Średnie ryzyko, Wysokie ryzyko"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tworzenie wykresu Gantta " prompt="Wprowadź tytuł projektu w komórce B2. _x000a_Informacje o korzystaniu z arkusza, w tym instrukcje dla czytników zawartości ekranu i autora skoroszytu znajdują się w arkuszu Informacje._x000a_Kontynuuj przechodzenie w dół kolumny A, aby odsłuchać dalszych instrukcji." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Nazwę firmy w komórce B4._x000a_Legenda znajduje się w komórkach od I4 do AC4. Etykieta legendy znajduje się w komórce G4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wartość przyrostu przewijania znajduje się w komórce C7. _x000a_Miesiące dla daty w wierszu 7 są wyświetlane od komórki od I6 do BL6._x000a_Nie modyfikuj tych komórek. Są one aktualizowane automatycznie na podstawie daty rozpoczęcia projektu w komórce F6." sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Komórki od I9 do BL9 zawierają numer dnia miesiąca w bloku komórki powyżej każdej komórki daty i są obliczane automatycznie._x000a_Nie modyfikuj tych komórek._x000a_" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Pasek przewijania znajduje się w komórkach od I8 do BL8. _x000a_Aby przejść do przodu lub do tyłu osi czasu, wprowadź wartość 0 lub wyższą w komórce C7._x000a_ Wartość 0 umożliwia przejście na początek wykresu." sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ten wiersz oznacza koniec danych punktu kontrolnego wykresu Gantta. NIE wprowadzaj niczego w tym wierszu. _x000a_Aby dodać więcej elementów, wstaw nowe wiersze powyżej tego wiersza._x000a_" sqref="A17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tworzenie wykresu Gantta " prompt="Wprowadź tytuł projektu w komórce B2. _x000a_Informacje o korzystaniu z arkusza, w tym instrukcje dla czytników zawartości ekranu i autora skoroszytu znajdują się w arkuszu Informacje._x000a_Kontynuuj przechodzenie w dół kolumny A, aby odsłuchać dalszych instrukcji." sqref="A2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Nazwę firmy w komórce B4._x000a_Legenda znajduje się w komórkach od I4 do AC4. Etykieta legendy znajduje się w komórce G4." sqref="A4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wartość przyrostu przewijania znajduje się w komórce C7. _x000a_Miesiące dla daty w wierszu 7 są wyświetlane od komórki od I6 do BL6._x000a_Nie modyfikuj tych komórek. Są one aktualizowane automatycznie na podstawie daty rozpoczęcia projektu w komórce F6." sqref="A6" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Komórki od I9 do BL9 zawierają numer dnia miesiąca w bloku komórki powyżej każdej komórki daty i są obliczane automatycznie._x000a_Nie modyfikuj tych komórek._x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Pasek przewijania znajduje się w komórkach od I8 do BL8. _x000a_Aby przejść do przodu lub do tyłu osi czasu, wprowadź wartość 0 lub wyższą w komórce C7._x000a_ Wartość 0 umożliwia przejście na początek wykresu." sqref="A8" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ten wiersz oznacza koniec danych punktu kontrolnego wykresu Gantta. NIE wprowadzaj niczego w tym wierszu. _x000a_Aby dodać więcej elementów, wstaw nowe wiersze powyżej tego wiersza._x000a_" sqref="A17" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -32850,7 +33075,7 @@
           <xm:sqref>E9:E17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="481" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
+          <x14:cfRule type="iconSet" priority="493" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32869,7 +33094,7 @@
           <xm:sqref>I17:AG17 AI17:BL17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="454" id="{821C37EB-48F0-498A-8433-DDD4D3CABBFB}">
+          <x14:cfRule type="iconSet" priority="466" id="{821C37EB-48F0-498A-8433-DDD4D3CABBFB}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32888,7 +33113,7 @@
           <xm:sqref>BN17:BU17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="439" id="{C89C5C19-F846-4EED-87B2-8000705835D4}">
+          <x14:cfRule type="iconSet" priority="451" id="{C89C5C19-F846-4EED-87B2-8000705835D4}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32907,7 +33132,7 @@
           <xm:sqref>BV17:BZ17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="395" id="{AD1FCBA8-6BA9-4394-A9E1-95003E7EF265}">
+          <x14:cfRule type="iconSet" priority="407" id="{AD1FCBA8-6BA9-4394-A9E1-95003E7EF265}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32926,7 +33151,7 @@
           <xm:sqref>CA17:GP17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="592" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+          <x14:cfRule type="iconSet" priority="604" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32945,7 +33170,7 @@
           <xm:sqref>I10:AG16 AI10:BL16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="593" id="{129EF8F5-4D02-4213-8A0E-8CE186DA471A}">
+          <x14:cfRule type="iconSet" priority="605" id="{129EF8F5-4D02-4213-8A0E-8CE186DA471A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32964,7 +33189,7 @@
           <xm:sqref>BM10:BM16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="594" id="{C2210E16-5DC0-44FB-9300-C698473FF137}">
+          <x14:cfRule type="iconSet" priority="606" id="{C2210E16-5DC0-44FB-9300-C698473FF137}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32983,7 +33208,7 @@
           <xm:sqref>BN10:BU16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="595" id="{5639EB44-79B2-40E1-8A2F-D9EC83E3E48C}">
+          <x14:cfRule type="iconSet" priority="607" id="{5639EB44-79B2-40E1-8A2F-D9EC83E3E48C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33002,7 +33227,7 @@
           <xm:sqref>BV10:BZ16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="596" id="{E70F1FDF-6ACF-4A98-807D-1D2CDF9D8954}">
+          <x14:cfRule type="iconSet" priority="608" id="{E70F1FDF-6ACF-4A98-807D-1D2CDF9D8954}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33021,7 +33246,7 @@
           <xm:sqref>CA10:GA16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="354" id="{74E635C7-1556-482E-BD1C-BA0B3B12BB8B}">
+          <x14:cfRule type="iconSet" priority="366" id="{74E635C7-1556-482E-BD1C-BA0B3B12BB8B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33040,7 +33265,7 @@
           <xm:sqref>AH11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="322" id="{8004C045-3920-49C7-A4DB-CBD54023D7F1}">
+          <x14:cfRule type="iconSet" priority="334" id="{8004C045-3920-49C7-A4DB-CBD54023D7F1}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33059,7 +33284,7 @@
           <xm:sqref>GQ17:HX17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="318" id="{42D3D247-6DDE-4871-AB77-CE63BC0E3526}">
+          <x14:cfRule type="iconSet" priority="330" id="{42D3D247-6DDE-4871-AB77-CE63BC0E3526}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33078,7 +33303,7 @@
           <xm:sqref>GB10:HC16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="308" id="{35499B66-2944-431A-B6F5-D86A2E2BBE80}">
+          <x14:cfRule type="iconSet" priority="320" id="{35499B66-2944-431A-B6F5-D86A2E2BBE80}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33097,7 +33322,7 @@
           <xm:sqref>HD10:HX16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="269" id="{D9B06037-A56C-4672-BA9D-F14B22F3A05E}">
+          <x14:cfRule type="iconSet" priority="281" id="{D9B06037-A56C-4672-BA9D-F14B22F3A05E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33116,7 +33341,7 @@
           <xm:sqref>HY17:KI17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="268" id="{638AE708-FE75-45F3-A61E-1A92A5E1A2B4}">
+          <x14:cfRule type="iconSet" priority="280" id="{638AE708-FE75-45F3-A61E-1A92A5E1A2B4}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33135,7 +33360,7 @@
           <xm:sqref>HY10:KI16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="250" id="{FACBE71D-677D-4271-86D5-10E954EE1A02}">
+          <x14:cfRule type="iconSet" priority="262" id="{FACBE71D-677D-4271-86D5-10E954EE1A02}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33154,7 +33379,7 @@
           <xm:sqref>KJ17:LL17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="249" id="{BFF7283B-68DD-4D86-AB06-724BE1D807C6}">
+          <x14:cfRule type="iconSet" priority="261" id="{BFF7283B-68DD-4D86-AB06-724BE1D807C6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33173,7 +33398,7 @@
           <xm:sqref>KJ10:LL16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="180" id="{09DFFF16-28B9-4241-AFD5-27558A7ED485}">
+          <x14:cfRule type="iconSet" priority="192" id="{09DFFF16-28B9-4241-AFD5-27558A7ED485}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33192,7 +33417,7 @@
           <xm:sqref>LM17:NO17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{5D6310B4-26A5-49C9-80D9-50A848A320E2}">
+          <x14:cfRule type="iconSet" priority="191" id="{5D6310B4-26A5-49C9-80D9-50A848A320E2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33211,7 +33436,7 @@
           <xm:sqref>LM10:NO16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="137" id="{4F6DEC06-EFE8-4C8A-BA1F-3F3CF2C3FDF3}">
+          <x14:cfRule type="iconSet" priority="149" id="{4F6DEC06-EFE8-4C8A-BA1F-3F3CF2C3FDF3}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33230,7 +33455,7 @@
           <xm:sqref>NP17:PT17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="136" id="{87D371BE-5AB3-414B-B14C-C77466614AF9}">
+          <x14:cfRule type="iconSet" priority="148" id="{87D371BE-5AB3-414B-B14C-C77466614AF9}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33249,7 +33474,7 @@
           <xm:sqref>NP10:PT16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="91" id="{EA52514A-8ACB-4AA7-A7A4-BEC5C97EE48D}">
+          <x14:cfRule type="iconSet" priority="103" id="{EA52514A-8ACB-4AA7-A7A4-BEC5C97EE48D}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33268,7 +33493,7 @@
           <xm:sqref>PU17:UH17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="90" id="{BEA7A3B9-931A-4E63-A33D-36A9FA0C39B2}">
+          <x14:cfRule type="iconSet" priority="102" id="{BEA7A3B9-931A-4E63-A33D-36A9FA0C39B2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33287,7 +33512,7 @@
           <xm:sqref>PU10:UH16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{C3026EBA-100F-4DFC-B0DB-1BA8C889C393}">
+          <x14:cfRule type="iconSet" priority="36" id="{C3026EBA-100F-4DFC-B0DB-1BA8C889C393}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33306,7 +33531,7 @@
           <xm:sqref>UI17:UX17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{41193CA0-F4C8-4B29-B2B3-DE22366FA586}">
+          <x14:cfRule type="iconSet" priority="35" id="{41193CA0-F4C8-4B29-B2B3-DE22366FA586}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33331,7 +33556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -33652,7 +33877,7 @@
       </c>
       <c r="C6" s="38" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Punkty_kontrolne435[Rozpoczęcie])=0,TODAY(),B11(Punkty_kontrolne435[Rozpoczęcie])),TODAY())</f>
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="34"/>
@@ -33661,7 +33886,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="99" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>sierpień</v>
+        <v>August</v>
       </c>
       <c r="J6" s="99"/>
       <c r="K6" s="99"/>
@@ -33671,7 +33896,7 @@
       <c r="O6" s="99"/>
       <c r="P6" s="99" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>wrzesień</v>
+        <v>September</v>
       </c>
       <c r="Q6" s="99"/>
       <c r="R6" s="99"/>
@@ -33711,7 +33936,7 @@
       <c r="AQ6" s="99"/>
       <c r="AR6" s="99" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>październik</v>
+        <v>October</v>
       </c>
       <c r="AS6" s="99"/>
       <c r="AT6" s="99"/>
@@ -33756,227 +33981,227 @@
       <c r="H7" s="37"/>
       <c r="I7" s="101">
         <f ca="1">IFERROR(Początek_projektu+Przyrost_przewijania,TODAY())</f>
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="O7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44442</v>
+        <v>44444</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44443</v>
+        <v>44445</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44445</v>
+        <v>44447</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44447</v>
+        <v>44449</v>
       </c>
       <c r="V7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44449</v>
+        <v>44451</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="AC7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44456</v>
+        <v>44458</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44457</v>
+        <v>44459</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="AJ7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44462</v>
+        <v>44464</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44463</v>
+        <v>44465</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44464</v>
+        <v>44466</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44465</v>
+        <v>44467</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="AQ7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44469</v>
+        <v>44471</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44470</v>
+        <v>44472</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="AX7" s="69">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44478</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44477</v>
+        <v>44479</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44478</v>
+        <v>44480</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44479</v>
+        <v>44481</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="BE7" s="69">
         <f t="shared" ca="1" si="1"/>
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44484</v>
+        <v>44486</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44485</v>
+        <v>44487</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="BM7" s="34"/>
     </row>
@@ -34072,227 +34297,227 @@
       <c r="H9" s="54"/>
       <c r="I9" s="42" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="J9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="K9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="L9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="M9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="N9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="O9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="P9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="R9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="S9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="T9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="U9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="V9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="W9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="X9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="AA9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="AC9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="AH9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="AO9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="AQ9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="AV9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="AX9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="BC9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="BE9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>W</v>
       </c>
       <c r="BJ9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>F</v>
       </c>
       <c r="BL9" s="42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="34"/>
     </row>
@@ -34616,7 +34841,7 @@
       </c>
       <c r="F12" s="25">
         <f ca="1">TODAY()</f>
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="G12" s="26">
         <v>3</v>
@@ -34860,7 +35085,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="25">
         <f ca="1">TODAY()+5</f>
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -35106,7 +35331,7 @@
       </c>
       <c r="F14" s="25">
         <f ca="1">F12-3</f>
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="G14" s="26">
         <v>10</v>
@@ -35350,7 +35575,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25">
         <f ca="1">F12+20</f>
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
@@ -35596,7 +35821,7 @@
       </c>
       <c r="F16" s="25">
         <f ca="1">F12+6</f>
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="G16" s="26">
         <v>6</v>
@@ -36079,7 +36304,7 @@
       </c>
       <c r="F18" s="25">
         <f ca="1">F12+6</f>
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="G18" s="26">
         <v>13</v>
@@ -36325,7 +36550,7 @@
       </c>
       <c r="F19" s="25">
         <f ca="1">F18+2</f>
-        <v>44443</v>
+        <v>44445</v>
       </c>
       <c r="G19" s="26">
         <v>9</v>
@@ -36571,7 +36796,7 @@
       </c>
       <c r="F20" s="25">
         <f ca="1">F19+5</f>
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="G20" s="26">
         <v>11</v>
@@ -36815,7 +37040,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25">
         <f ca="1">F20+2</f>
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -37057,7 +37282,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25">
         <f ca="1">F21+1</f>
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="G22" s="26">
         <v>24</v>
@@ -37538,7 +37763,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25">
         <f ca="1">F12+15</f>
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="G24" s="26">
         <v>4</v>
@@ -37782,7 +38007,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25">
         <f ca="1">F24+3</f>
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="G25" s="26">
         <v>14</v>
@@ -38026,7 +38251,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25">
         <f ca="1">F25+15</f>
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="G26" s="26">
         <v>6</v>
@@ -38270,7 +38495,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25">
         <f ca="1">F21+22</f>
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="G27" s="26">
         <v>3</v>
@@ -38514,7 +38739,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25">
         <f ca="1">F16</f>
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="G28" s="26">
         <v>19</v>
@@ -38993,7 +39218,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25">
         <f ca="1">F27+3</f>
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="G30" s="26">
         <v>15</v>
@@ -39235,7 +39460,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25">
         <f ca="1">F30+14</f>
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="G31" s="26">
         <v>5</v>
@@ -39479,7 +39704,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25">
         <f ca="1">F31+42</f>
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="G32" s="26">
         <v>1</v>
@@ -40523,77 +40748,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="335" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="334" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="333" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="332" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="331" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>AND($C10="Niskie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="8" stopIfTrue="1">
       <formula>AND($C10="Wysokie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
       <formula>AND($C10="Zgodnie z planem",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
       <formula>AND($C10="Średnie ryzyko",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="326" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Niskie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="Wysokie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="Zgodnie z planem",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Średnie ryzyko",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Cel,Punkt kontrolny,Zgodnie z planem, Niskie ryzyko, Średnie ryzyko, Wysokie ryzyko"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Cel,Punkt kontrolny,Zgodnie z planem, Niskie ryzyko, Średnie ryzyko, Wysokie ryzyko"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Przyrost przewijania" prompt="Zmiana tej liczby spowoduje przewinięcie widoku wykresu Gantta." sqref="C7">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Przyrost przewijania" prompt="Zmiana tej liczby spowoduje przewinięcie widoku wykresu Gantta." sqref="C7" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To jest pusty wiersz" sqref="A35"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ten wiersz oznacza koniec danych punktu kontrolnego wykresu Gantta. NIE wprowadzaj niczego w tym wierszu. _x000a_Aby dodać więcej elementów, wstaw nowe wiersze powyżej tego wiersza._x000a_" sqref="A36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Informacje o projekcie od komórki B11 do komórki G11. _x000a_Wprowadź opis punktu kontrolnego, wybierz kategorię, przydziel kogoś do zadania i wprowadź postęp, datę rozpoczęcia oraz liczbę dni dla zadania, aby rozpocząć tworzenie wykresu._x000a_" sqref="A11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Pasek przewijania znajduje się w komórkach od I8 do BL8. _x000a_Aby przejść do przodu lub do tyłu osi czasu, wprowadź wartość 0 lub wyższą w komórce C7._x000a_ Wartość 0 umożliwia przejście na początek wykresu." sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Komórki od I9 do BL9 zawierają numer dnia miesiąca w bloku komórki powyżej każdej komórki daty i są obliczane automatycznie._x000a_Nie modyfikuj tych komórek._x000a_" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wartość przyrostu przewijania znajduje się w komórce C7. _x000a_Miesiące dla daty w wierszu 7 są wyświetlane od komórki od I6 do BL6._x000a_Nie modyfikuj tych komórek. Są one aktualizowane automatycznie na podstawie daty rozpoczęcia projektu w komórce F6." sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Nazwę firmy w komórce B4._x000a_Legenda znajduje się w komórkach od I4 do AC4. Etykieta legendy znajduje się w komórce G4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tworzenie wykresu Gantta " prompt="Wprowadź tytuł projektu w komórce B2. _x000a_Informacje o korzystaniu z arkusza, w tym instrukcje dla czytników zawartości ekranu i autora skoroszytu znajdują się w arkuszu Informacje._x000a_Kontynuuj przechodzenie w dół kolumny A, aby odsłuchać dalszych instrukcji." sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To jest pusty wiersz" sqref="A35" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ten wiersz oznacza koniec danych punktu kontrolnego wykresu Gantta. NIE wprowadzaj niczego w tym wierszu. _x000a_Aby dodać więcej elementów, wstaw nowe wiersze powyżej tego wiersza._x000a_" sqref="A36" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Informacje o projekcie od komórki B11 do komórki G11. _x000a_Wprowadź opis punktu kontrolnego, wybierz kategorię, przydziel kogoś do zadania i wprowadź postęp, datę rozpoczęcia oraz liczbę dni dla zadania, aby rozpocząć tworzenie wykresu._x000a_" sqref="A11" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Pasek przewijania znajduje się w komórkach od I8 do BL8. _x000a_Aby przejść do przodu lub do tyłu osi czasu, wprowadź wartość 0 lub wyższą w komórce C7._x000a_ Wartość 0 umożliwia przejście na początek wykresu." sqref="A8" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Komórki od I9 do BL9 zawierają numer dnia miesiąca w bloku komórki powyżej każdej komórki daty i są obliczane automatycznie._x000a_Nie modyfikuj tych komórek._x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wartość przyrostu przewijania znajduje się w komórce C7. _x000a_Miesiące dla daty w wierszu 7 są wyświetlane od komórki od I6 do BL6._x000a_Nie modyfikuj tych komórek. Są one aktualizowane automatycznie na podstawie daty rozpoczęcia projektu w komórce F6." sqref="A6" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Wprowadź Nazwę firmy w komórce B4._x000a_Legenda znajduje się w komórkach od I4 do AC4. Etykieta legendy znajduje się w komórce G4." sqref="A4" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tworzenie wykresu Gantta " prompt="Wprowadź tytuł projektu w komórce B2. _x000a_Informacje o korzystaniu z arkusza, w tym instrukcje dla czytników zawartości ekranu i autora skoroszytu znajdują się w arkuszu Informacje._x000a_Kontynuuj przechodzenie w dół kolumny A, aby odsłuchać dalszych instrukcji." sqref="A2" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -40697,34 +40922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -41000,27 +41197,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41039,4 +41244,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>